--- a/BugReport_MQA.xlsx
+++ b/BugReport_MQA.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS ROG\task2_git_Blazhevskiy\git_task9_Blazhevskiy\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Аркуш1" sheetId="1" r:id="rId4"/>
+    <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -53,163 +61,206 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Steps to Reproduce: 1.Открыть сайт </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://www.saucedemo.com/inventory.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; 2. Нажать на фильтр; 3. Выбрать из выпадающего списка PRICE (LOW TO HIGH); 4. Выбрать из выпадающего списка PRICE (HIGH TO LOW). Expected Result: Тескт полностью отображается в форме; Actual Result: Текст не помещается.</t>
+    </r>
+  </si>
+  <si>
+    <t>Невозможно изменить количество добавленного товара в корзине при оформлении заказа</t>
+  </si>
+  <si>
+    <t>Корзина</t>
+  </si>
+  <si>
+    <t>Chrome Версия 102.0.5005.115 (Официальная сборка), (64 бит); Windows 11</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Steps to Reproduce: 1.Открыть сайт </t>
+    </r>
+    <r>
+      <rPr>
         <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://www.saucedemo.com/inventory.html</t>
     </r>
     <r>
-      <rPr/>
-      <t xml:space="preserve"> ; 2. Нажать на фильтр; 3. Выбрать из выпадающего списка PRICE (LOW TO HIGH); 4. Выбрать из выпадающего списка PRICE (HIGH TO LOW). Expected Result: Тескт полностью отображается в форме; Actual Result: Текст не помещается.</t>
-    </r>
-  </si>
-  <si>
-    <t>Невозможно изменить количество добавленного товара в корзине при оформлении заказа</t>
-  </si>
-  <si>
-    <t>Корзина</t>
-  </si>
-  <si>
-    <t>Chrome Версия 102.0.5005.115 (Официальная сборка), (64 бит); Windows 11</t>
-  </si>
-  <si>
-    <t>Critical</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; 2. Добавить товар в корзину; 3. Перейти в корзину; 4. Ихменить количество выбранного товара. Expected Result: Возможно указать нужное количество товра; Actual Result: Поле изменения количества товара не активно</t>
+    </r>
+  </si>
+  <si>
+    <t>Возможность оформить заказ без наличия товара в корзине(TestCase№7)</t>
+  </si>
+  <si>
+    <t>Оформление заказа</t>
+  </si>
+  <si>
+    <t>Chrome Версия 102.0.5005.115 (Официальная сборка), (64 бит); Windows 12</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Steps to Reproduce: 1.Открыть сайт </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://www.saucedemo.com/inventory.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ; 2. Перейти в корзину; 4. Нажать на кнопку CHECKOUT с пустой корзиной. Expected Result: Появляется сообщение "В корзине нет товара"; Actual Result: Позволяет оформить заказ без товара.</t>
+    </r>
+  </si>
+  <si>
+    <t>Неработающие ссылки в футере сайта</t>
+  </si>
+  <si>
+    <t>Футер</t>
+  </si>
+  <si>
+    <t>Chrome Версия 102.0.5005.115 (Официальная сборка), (64 бит); Windows 13</t>
+  </si>
+  <si>
+    <t>Minor</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Steps to Reproduce: 1.Открыть сайт </t>
+    </r>
+    <r>
+      <rPr>
         <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://www.saucedemo.com/inventory.html</t>
     </r>
     <r>
-      <rPr/>
-      <t xml:space="preserve"> ; 2. Добавить товар в корзину; 3. Перейти в корзину; 4. Ихменить количество выбранного товара. Expected Result: Возможно указать нужное количество товра; Actual Result: Поле изменения количества товара не активно</t>
-    </r>
-  </si>
-  <si>
-    <t>Возможность оформить заказ без наличия товара в корзине(TestCase№7)</t>
-  </si>
-  <si>
-    <t>Оформление заказа</t>
-  </si>
-  <si>
-    <t>Chrome Версия 102.0.5005.115 (Официальная сборка), (64 бит); Windows 12</t>
-  </si>
-  <si>
-    <t>Major</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  ; 2. Скролить на футер сайта; 3. Нажать на текст ссылки Terms of Service; 4. Нажать на текст ссылки Privacy Policy. Expected Result: Осуществляется переход по ссылке; Actual Result: Ссылка не активна.</t>
+    </r>
+  </si>
+  <si>
+    <t>Не меняется курсор при наведении на иконку Корзина</t>
+  </si>
+  <si>
+    <t>Chrome Версия 102.0.5005.115 (Официальная сборка), (64 бит); Windows 14</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Steps to Reproduce: 1.Открыть сайт </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
       </rPr>
       <t>https://www.saucedemo.com/inventory.html</t>
     </r>
     <r>
-      <rPr/>
-      <t xml:space="preserve"> ; 2. Перейти в корзину; 4. Нажать на кнопку CHECKOUT с пустой корзиной. Expected Result: Появляется сообщение "В корзине нет товара"; Actual Result: Позволяет оформить заказ без товара.</t>
-    </r>
-  </si>
-  <si>
-    <t>Неработающие ссылки в футере сайта</t>
-  </si>
-  <si>
-    <t>Футер</t>
-  </si>
-  <si>
-    <t>Chrome Версия 102.0.5005.115 (Официальная сборка), (64 бит); Windows 13</t>
-  </si>
-  <si>
-    <t>Minor</t>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">Steps to Reproduce: 1.Открыть сайт </t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>https://www.saucedemo.com/inventory.html</t>
-    </r>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">  ; 2. Скролить на футер сайта; 3. Нажать на текст ссылки Terms of Service; 4. Нажать на текст ссылки Privacy Policy. Expected Result: Осуществляется переход по ссылке; Actual Result: Ссылка не активна.</t>
-    </r>
-  </si>
-  <si>
-    <t>Не меняется курсор при наведении на иконку Корзина</t>
-  </si>
-  <si>
-    <t>Chrome Версия 102.0.5005.115 (Официальная сборка), (64 бит); Windows 14</t>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">Steps to Reproduce: 1.Открыть сайт </t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>https://www.saucedemo.com/inventory.html</t>
-    </r>
-    <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">  ; 2. Навести курсор на иконку Корзина. Expected Result: Курсор изменяется; Actual Result: Курсор не изменяется.</t>
     </r>
+  </si>
+  <si>
+    <t>add new words</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -217,7 +268,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -227,7 +278,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -241,44 +298,52 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -289,11 +354,11 @@
     <xdr:ext cx="276225" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png"/>
+        <xdr:cNvPr id="2" name="image4.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -317,11 +382,11 @@
     <xdr:ext cx="266700" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png"/>
+        <xdr:cNvPr id="3" name="image5.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -345,11 +410,11 @@
     <xdr:ext cx="619125" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="4" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -373,11 +438,11 @@
     <xdr:ext cx="561975" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="5" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -401,11 +466,11 @@
     <xdr:ext cx="571500" cy="200025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPr id="6" name="image3.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -423,7 +488,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -613,25 +678,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="4.38"/>
-    <col customWidth="1" min="2" max="2" width="27.25"/>
-    <col customWidth="1" min="7" max="7" width="28.38"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" customWidth="1"/>
+    <col min="7" max="7" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -657,9 +727,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" ht="158.4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
@@ -681,9 +751,9 @@
       </c>
       <c r="H2" s="5"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>14</v>
@@ -705,9 +775,9 @@
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>20</v>
@@ -729,9 +799,9 @@
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>26</v>
@@ -753,9 +823,9 @@
       </c>
       <c r="H5" s="6"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>31</v>
@@ -775,7 +845,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -785,7 +855,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -795,7 +865,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -805,14 +875,20 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="G2"/>
-    <hyperlink r:id="rId2" ref="G3"/>
-    <hyperlink r:id="rId3" ref="G4"/>
-    <hyperlink r:id="rId4" ref="G5"/>
-    <hyperlink r:id="rId5" ref="G6"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G5" r:id="rId4"/>
+    <hyperlink ref="G6" r:id="rId5"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId6"/>
 </worksheet>
 </file>
--- a/BugReport_MQA.xlsx
+++ b/BugReport_MQA.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>ID</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>add new words</t>
+  </si>
+  <si>
+    <t>add conflict</t>
   </si>
 </sst>
 </file>
@@ -688,10 +691,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -880,6 +883,11 @@
         <v>34</v>
       </c>
     </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>

--- a/BugReport_MQA.xlsx
+++ b/BugReport_MQA.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>ID</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>add new words</t>
+  </si>
+  <si>
+    <t>content to append</t>
   </si>
 </sst>
 </file>
@@ -688,10 +691,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -880,6 +883,11 @@
         <v>34</v>
       </c>
     </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
